--- a/Test Case/Validazione/1-Referto di Radiologia/CDA2_Referto_di_Radiologia_OK.xlsx
+++ b/Test Case/Validazione/1-Referto di Radiologia/CDA2_Referto_di_Radiologia_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AF833DV\Downloads\1-Referto di Radiologia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sites.ey.com/sites/IBM-SOGEI-Sogei-FSE2.0-GTW/Shared Documents/Sogei - FSE 2.0 - GTW/02.  Accreditamento - contributo SME per checklist/Validazione/[Accreditamento_Fornitori] - TC OK &amp; KO - 20231213/1-Referto di Radiologia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680DBC1-EACC-4D84-8BDC-BFC9EE21E4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{00417938-8A01-4C7E-9F21-1E9A62D728B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1382150B-E1CD-43C0-8802-46F775A4006D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{198EE3C7-F152-41BB-9DDF-AB2FB3AD488A}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{198EE3C7-F152-41BB-9DDF-AB2FB3AD488A}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="1" r:id="rId1"/>
@@ -2284,7 +2284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2300,18 +2300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,7 +2525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2614,12 +2602,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{34FF38AB-F777-4991-BF9E-61EE15754F1D}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2635,8 +2621,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/namedSheetViews/namedSheetView2.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -2935,16 +2933,16 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="67.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
@@ -2967,24 +2965,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D91E6D-89CE-445A-8852-782BDCBA18D6}">
-  <dimension ref="B1:I333"/>
+  <dimension ref="B1:J333"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="57" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="98.77734375" style="20" customWidth="1"/>
-    <col min="3" max="6" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="92.90625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" customWidth="1"/>
+    <col min="8" max="8" width="44.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +3002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
@@ -3028,7 +3023,7 @@
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="2:8" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="93.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
@@ -3049,7 +3044,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>97</v>
       </c>
@@ -3070,7 +3065,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
@@ -3139,7 +3134,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
@@ -3183,7 +3178,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
@@ -3204,7 +3199,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
@@ -3225,7 +3220,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
@@ -3246,7 +3241,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>116</v>
       </c>
@@ -3267,7 +3262,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>118</v>
       </c>
@@ -3288,7 +3283,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>120</v>
       </c>
@@ -3309,7 +3304,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>121</v>
       </c>
@@ -3330,7 +3325,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>123</v>
       </c>
@@ -3351,7 +3346,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>125</v>
       </c>
@@ -3372,7 +3367,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>127</v>
       </c>
@@ -3393,7 +3388,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>129</v>
       </c>
@@ -3414,7 +3409,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>130</v>
       </c>
@@ -3435,7 +3430,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>132</v>
       </c>
@@ -3456,7 +3451,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -3477,7 +3472,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -3498,7 +3493,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
@@ -3519,7 +3514,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>139</v>
       </c>
@@ -3540,7 +3535,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>141</v>
       </c>
@@ -3561,7 +3556,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>144</v>
       </c>
@@ -3582,7 +3577,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>146</v>
       </c>
@@ -3603,7 +3598,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>148</v>
       </c>
@@ -3624,7 +3619,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>150</v>
       </c>
@@ -3645,7 +3640,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>152</v>
       </c>
@@ -3666,7 +3661,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>154</v>
       </c>
@@ -3687,7 +3682,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>156</v>
       </c>
@@ -3708,7 +3703,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>159</v>
       </c>
@@ -3729,7 +3724,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>161</v>
       </c>
@@ -3750,7 +3745,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>163</v>
       </c>
@@ -3771,7 +3766,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>165</v>
       </c>
@@ -3792,7 +3787,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>167</v>
       </c>
@@ -3813,7 +3808,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>169</v>
       </c>
@@ -3834,7 +3829,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>171</v>
       </c>
@@ -3855,7 +3850,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>173</v>
       </c>
@@ -3876,7 +3871,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>175</v>
       </c>
@@ -3897,7 +3892,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>177</v>
       </c>
@@ -3918,7 +3913,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>179</v>
       </c>
@@ -3939,7 +3934,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>180</v>
       </c>
@@ -3962,7 +3957,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
@@ -3985,7 +3980,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>184</v>
       </c>
@@ -4008,7 +4003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>186</v>
       </c>
@@ -4031,7 +4026,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>188</v>
       </c>
@@ -4052,7 +4047,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>189</v>
       </c>
@@ -4073,7 +4068,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>190</v>
       </c>
@@ -4094,7 +4089,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>191</v>
       </c>
@@ -4115,7 +4110,7 @@
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>193</v>
       </c>
@@ -4138,7 +4133,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>196</v>
       </c>
@@ -4160,9 +4155,8 @@
       <c r="H55" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I55" s="28"/>
-    </row>
-    <row r="56" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>199</v>
       </c>
@@ -4183,7 +4177,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>201</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>204</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>206</v>
       </c>
@@ -4252,7 +4246,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>208</v>
       </c>
@@ -4275,7 +4269,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>211</v>
       </c>
@@ -4296,7 +4290,7 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>213</v>
       </c>
@@ -4319,7 +4313,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>216</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>219</v>
       </c>
@@ -4365,7 +4359,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
         <v>222</v>
       </c>
@@ -4388,7 +4382,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>225</v>
       </c>
@@ -4411,7 +4405,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>228</v>
       </c>
@@ -4430,7 +4424,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>229</v>
       </c>
@@ -4449,7 +4443,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>230</v>
       </c>
@@ -4468,7 +4462,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>231</v>
       </c>
@@ -4487,7 +4481,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="142.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="142" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>232</v>
       </c>
@@ -4508,7 +4502,7 @@
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>234</v>
       </c>
@@ -4529,7 +4523,7 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>235</v>
       </c>
@@ -4552,7 +4546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
         <v>237</v>
       </c>
@@ -4575,7 +4569,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>238</v>
       </c>
@@ -4598,7 +4592,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>240</v>
       </c>
@@ -4621,7 +4615,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>242</v>
       </c>
@@ -4642,7 +4636,7 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>243</v>
       </c>
@@ -4663,7 +4657,7 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
         <v>245</v>
       </c>
@@ -4686,7 +4680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>248</v>
       </c>
@@ -4709,7 +4703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
         <v>251</v>
       </c>
@@ -4732,7 +4726,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>253</v>
       </c>
@@ -4755,7 +4749,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>256</v>
       </c>
@@ -4776,7 +4770,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>258</v>
       </c>
@@ -4799,7 +4793,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>261</v>
       </c>
@@ -4820,7 +4814,7 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>263</v>
       </c>
@@ -4841,7 +4835,7 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>265</v>
       </c>
@@ -4864,7 +4858,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>267</v>
       </c>
@@ -4885,7 +4879,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>268</v>
       </c>
@@ -4906,7 +4900,7 @@
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>270</v>
       </c>
@@ -4929,7 +4923,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>273</v>
       </c>
@@ -4952,7 +4946,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>276</v>
       </c>
@@ -4975,7 +4969,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>279</v>
       </c>
@@ -4998,7 +4992,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="4" t="s">
         <v>282</v>
       </c>
@@ -5019,7 +5013,7 @@
       </c>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>283</v>
       </c>
@@ -5040,7 +5034,7 @@
       </c>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>285</v>
       </c>
@@ -5061,7 +5055,7 @@
       </c>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>287</v>
       </c>
@@ -5082,7 +5076,7 @@
       </c>
       <c r="H97" s="13"/>
     </row>
-    <row r="98" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>289</v>
       </c>
@@ -5102,9 +5096,8 @@
         <v>290</v>
       </c>
       <c r="H98" s="13"/>
-      <c r="I98" s="27"/>
-    </row>
-    <row r="99" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>291</v>
       </c>
@@ -5125,7 +5118,7 @@
       </c>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>292</v>
       </c>
@@ -5146,7 +5139,7 @@
       </c>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>294</v>
       </c>
@@ -5169,7 +5162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>297</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>300</v>
       </c>
@@ -5215,7 +5208,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>303</v>
       </c>
@@ -5238,7 +5231,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>306</v>
       </c>
@@ -5259,7 +5252,7 @@
       </c>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="4" t="s">
         <v>307</v>
       </c>
@@ -5280,7 +5273,7 @@
       </c>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="4" t="s">
         <v>308</v>
       </c>
@@ -5301,7 +5294,7 @@
       </c>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="4" t="s">
         <v>310</v>
       </c>
@@ -5322,7 +5315,7 @@
       </c>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -5343,7 +5336,7 @@
       </c>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="4" t="s">
         <v>313</v>
       </c>
@@ -5364,7 +5357,7 @@
       </c>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="4" t="s">
         <v>315</v>
       </c>
@@ -5385,7 +5378,7 @@
       </c>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="4" t="s">
         <v>317</v>
       </c>
@@ -5408,7 +5401,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="4" t="s">
         <v>320</v>
       </c>
@@ -5431,7 +5424,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="4" t="s">
         <v>322</v>
       </c>
@@ -5454,7 +5447,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
         <v>325</v>
       </c>
@@ -5475,7 +5468,7 @@
       </c>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -5498,7 +5491,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -5521,7 +5514,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="4" t="s">
         <v>329</v>
       </c>
@@ -5544,7 +5537,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4" t="s">
         <v>330</v>
       </c>
@@ -5565,7 +5558,7 @@
       </c>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="4" t="s">
         <v>331</v>
       </c>
@@ -5586,7 +5579,7 @@
       </c>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="4" t="s">
         <v>332</v>
       </c>
@@ -5609,7 +5602,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="4" t="s">
         <v>335</v>
       </c>
@@ -5630,7 +5623,7 @@
       </c>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="4" t="s">
         <v>337</v>
       </c>
@@ -5651,7 +5644,7 @@
       </c>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="4" t="s">
         <v>338</v>
       </c>
@@ -5672,7 +5665,7 @@
       </c>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="4" t="s">
         <v>340</v>
       </c>
@@ -5693,7 +5686,7 @@
       </c>
       <c r="H125" s="13"/>
     </row>
-    <row r="126" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="4" t="s">
         <v>342</v>
       </c>
@@ -5716,7 +5709,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="4" t="s">
         <v>345</v>
       </c>
@@ -5739,7 +5732,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="4" t="s">
         <v>348</v>
       </c>
@@ -5760,7 +5753,7 @@
       </c>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="4" t="s">
         <v>350</v>
       </c>
@@ -5783,7 +5776,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="4" t="s">
         <v>353</v>
       </c>
@@ -5802,7 +5795,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>354</v>
       </c>
@@ -5823,7 +5816,7 @@
       </c>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="4" t="s">
         <v>356</v>
       </c>
@@ -5846,7 +5839,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="4" t="s">
         <v>359</v>
       </c>
@@ -5867,7 +5860,7 @@
       </c>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="4" t="s">
         <v>360</v>
       </c>
@@ -5888,7 +5881,7 @@
       </c>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="4" t="s">
         <v>362</v>
       </c>
@@ -5909,7 +5902,7 @@
       </c>
       <c r="H135" s="13"/>
     </row>
-    <row r="136" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="4" t="s">
         <v>364</v>
       </c>
@@ -5930,7 +5923,7 @@
       </c>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="4" t="s">
         <v>366</v>
       </c>
@@ -5949,7 +5942,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4" t="s">
         <v>367</v>
       </c>
@@ -5972,7 +5965,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="4" t="s">
         <v>370</v>
       </c>
@@ -5993,7 +5986,7 @@
       </c>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="4" t="s">
         <v>372</v>
       </c>
@@ -6014,7 +6007,7 @@
       </c>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="4" t="s">
         <v>373</v>
       </c>
@@ -6035,7 +6028,7 @@
       </c>
       <c r="H141" s="13"/>
     </row>
-    <row r="142" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="4" t="s">
         <v>374</v>
       </c>
@@ -6058,7 +6051,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="4" t="s">
         <v>376</v>
       </c>
@@ -6079,7 +6072,7 @@
       </c>
       <c r="H143" s="13"/>
     </row>
-    <row r="144" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="4" t="s">
         <v>377</v>
       </c>
@@ -6102,7 +6095,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="4" t="s">
         <v>380</v>
       </c>
@@ -6123,7 +6116,7 @@
       </c>
       <c r="H145" s="13"/>
     </row>
-    <row r="146" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="4" t="s">
         <v>382</v>
       </c>
@@ -6144,7 +6137,7 @@
       </c>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="4" t="s">
         <v>384</v>
       </c>
@@ -6165,7 +6158,7 @@
       </c>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="4" t="s">
         <v>386</v>
       </c>
@@ -6186,7 +6179,7 @@
       </c>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="4" t="s">
         <v>388</v>
       </c>
@@ -6206,9 +6199,8 @@
         <v>389</v>
       </c>
       <c r="H149" s="13"/>
-      <c r="I149" s="27"/>
-    </row>
-    <row r="150" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="4" t="s">
         <v>390</v>
       </c>
@@ -6231,7 +6223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="4" t="s">
         <v>393</v>
       </c>
@@ -6252,7 +6244,7 @@
       </c>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="4" t="s">
         <v>395</v>
       </c>
@@ -6275,7 +6267,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>397</v>
       </c>
@@ -6298,7 +6290,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="4" t="s">
         <v>399</v>
       </c>
@@ -6319,7 +6311,7 @@
       </c>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="4" t="s">
         <v>401</v>
       </c>
@@ -6340,7 +6332,7 @@
       </c>
       <c r="H155" s="13"/>
     </row>
-    <row r="156" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="4" t="s">
         <v>402</v>
       </c>
@@ -6361,7 +6353,7 @@
       </c>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="4" t="s">
         <v>404</v>
       </c>
@@ -6382,7 +6374,7 @@
       </c>
       <c r="H157" s="13"/>
     </row>
-    <row r="158" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="4" t="s">
         <v>406</v>
       </c>
@@ -6403,7 +6395,7 @@
       </c>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="4" t="s">
         <v>408</v>
       </c>
@@ -6424,7 +6416,7 @@
       </c>
       <c r="H159" s="13"/>
     </row>
-    <row r="160" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="4" t="s">
         <v>410</v>
       </c>
@@ -6445,7 +6437,7 @@
       </c>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="4" t="s">
         <v>412</v>
       </c>
@@ -6466,7 +6458,7 @@
       </c>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="14" t="s">
         <v>414</v>
       </c>
@@ -6489,7 +6481,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="14" t="s">
         <v>417</v>
       </c>
@@ -6510,7 +6502,7 @@
       </c>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="4" t="s">
         <v>418</v>
       </c>
@@ -6533,7 +6525,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="4" t="s">
         <v>420</v>
       </c>
@@ -6556,7 +6548,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="4" t="s">
         <v>422</v>
       </c>
@@ -6579,7 +6571,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="4" t="s">
         <v>424</v>
       </c>
@@ -6602,7 +6594,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="4" t="s">
         <v>426</v>
       </c>
@@ -6623,7 +6615,7 @@
       </c>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="4" t="s">
         <v>427</v>
       </c>
@@ -6644,7 +6636,7 @@
       </c>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="4" t="s">
         <v>429</v>
       </c>
@@ -6667,7 +6659,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="4" t="s">
         <v>431</v>
       </c>
@@ -6688,7 +6680,7 @@
       </c>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="4" t="s">
         <v>433</v>
       </c>
@@ -6709,7 +6701,7 @@
       </c>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="4" t="s">
         <v>435</v>
       </c>
@@ -6730,7 +6722,7 @@
       </c>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="4" t="s">
         <v>436</v>
       </c>
@@ -6751,7 +6743,7 @@
       </c>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>438</v>
       </c>
@@ -6772,7 +6764,7 @@
       </c>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="4" t="s">
         <v>440</v>
       </c>
@@ -6793,7 +6785,7 @@
       </c>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="4" t="s">
         <v>442</v>
       </c>
@@ -6816,7 +6808,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="4" t="s">
         <v>444</v>
       </c>
@@ -6837,7 +6829,7 @@
       </c>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="4" t="s">
         <v>446</v>
       </c>
@@ -6860,7 +6852,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="4" t="s">
         <v>449</v>
       </c>
@@ -6881,7 +6873,7 @@
       </c>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="4" t="s">
         <v>451</v>
       </c>
@@ -6902,7 +6894,7 @@
       </c>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="4" t="s">
         <v>452</v>
       </c>
@@ -6925,7 +6917,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="4" t="s">
         <v>454</v>
       </c>
@@ -6948,7 +6940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="4" t="s">
         <v>455</v>
       </c>
@@ -6971,7 +6963,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="4" t="s">
         <v>457</v>
       </c>
@@ -6994,7 +6986,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="4" t="s">
         <v>459</v>
       </c>
@@ -7015,7 +7007,7 @@
       </c>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="4" t="s">
         <v>461</v>
       </c>
@@ -7038,7 +7030,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="4" t="s">
         <v>463</v>
       </c>
@@ -7059,7 +7051,7 @@
       </c>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="4" t="s">
         <v>465</v>
       </c>
@@ -7080,7 +7072,7 @@
       </c>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="4" t="s">
         <v>466</v>
       </c>
@@ -7103,7 +7095,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="4" t="s">
         <v>469</v>
       </c>
@@ -7124,7 +7116,7 @@
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="4" t="s">
         <v>471</v>
       </c>
@@ -7147,7 +7139,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="4" t="s">
         <v>474</v>
       </c>
@@ -7168,7 +7160,7 @@
       </c>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="4" t="s">
         <v>476</v>
       </c>
@@ -7191,7 +7183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="4" t="s">
         <v>683</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="4" t="s">
         <v>479</v>
       </c>
@@ -7235,7 +7227,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>482</v>
       </c>
@@ -7258,7 +7250,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="4" t="s">
         <v>485</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="4" t="s">
         <v>488</v>
       </c>
@@ -7304,7 +7296,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="4" t="s">
         <v>491</v>
       </c>
@@ -7325,7 +7317,7 @@
       </c>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="4" t="s">
         <v>492</v>
       </c>
@@ -7346,7 +7338,7 @@
       </c>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="4" t="s">
         <v>494</v>
       </c>
@@ -7367,7 +7359,7 @@
       </c>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="4" t="s">
         <v>496</v>
       </c>
@@ -7388,7 +7380,7 @@
       </c>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="4" t="s">
         <v>497</v>
       </c>
@@ -7409,7 +7401,7 @@
       </c>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="4" t="s">
         <v>498</v>
       </c>
@@ -7432,7 +7424,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="4" t="s">
         <v>501</v>
       </c>
@@ -7453,7 +7445,7 @@
       </c>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="4" t="s">
         <v>503</v>
       </c>
@@ -7471,9 +7463,8 @@
       </c>
       <c r="G207" s="5"/>
       <c r="H207" s="7"/>
-      <c r="I207" s="27"/>
-    </row>
-    <row r="208" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="4" t="s">
         <v>504</v>
       </c>
@@ -7496,7 +7487,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="4" t="s">
         <v>506</v>
       </c>
@@ -7517,7 +7508,7 @@
       </c>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="4" t="s">
         <v>508</v>
       </c>
@@ -7538,7 +7529,7 @@
       </c>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="4" t="s">
         <v>510</v>
       </c>
@@ -7561,7 +7552,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="4" t="s">
         <v>512</v>
       </c>
@@ -7584,7 +7575,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="4" t="s">
         <v>515</v>
       </c>
@@ -7607,7 +7598,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="4" t="s">
         <v>518</v>
       </c>
@@ -7630,7 +7621,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="4" t="s">
         <v>521</v>
       </c>
@@ -7651,7 +7642,7 @@
       </c>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="4" t="s">
         <v>523</v>
       </c>
@@ -7672,7 +7663,7 @@
       </c>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="4" t="s">
         <v>525</v>
       </c>
@@ -7695,7 +7686,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="4" t="s">
         <v>527</v>
       </c>
@@ -7718,7 +7709,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="23" t="s">
         <v>530</v>
       </c>
@@ -7739,7 +7730,7 @@
       </c>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="4" t="s">
         <v>532</v>
       </c>
@@ -7762,7 +7753,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="4" t="s">
         <v>535</v>
       </c>
@@ -7785,7 +7776,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="4" t="s">
         <v>536</v>
       </c>
@@ -7805,9 +7796,8 @@
         <v>502</v>
       </c>
       <c r="H222" s="7"/>
-      <c r="I222" s="27"/>
-    </row>
-    <row r="223" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="4" t="s">
         <v>537</v>
       </c>
@@ -7828,7 +7818,7 @@
       </c>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="4" t="s">
         <v>539</v>
       </c>
@@ -7849,7 +7839,7 @@
       </c>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="4" t="s">
         <v>540</v>
       </c>
@@ -7870,7 +7860,7 @@
       </c>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="4" t="s">
         <v>542</v>
       </c>
@@ -7891,7 +7881,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="4" t="s">
         <v>544</v>
       </c>
@@ -7912,7 +7902,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="4" t="s">
         <v>546</v>
       </c>
@@ -7933,7 +7923,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="4" t="s">
         <v>548</v>
       </c>
@@ -7954,7 +7944,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="230" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="4" t="s">
         <v>550</v>
       </c>
@@ -7975,7 +7965,7 @@
       </c>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="4" t="s">
         <v>552</v>
       </c>
@@ -7998,7 +7988,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="4" t="s">
         <v>555</v>
       </c>
@@ -8019,7 +8009,7 @@
       </c>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="4" t="s">
         <v>557</v>
       </c>
@@ -8040,7 +8030,7 @@
       </c>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="4" t="s">
         <v>558</v>
       </c>
@@ -8063,7 +8053,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="4" t="s">
         <v>560</v>
       </c>
@@ -8086,7 +8076,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="236" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="4" t="s">
         <v>562</v>
       </c>
@@ -8109,7 +8099,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="4" t="s">
         <v>564</v>
       </c>
@@ -8132,7 +8122,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="4" t="s">
         <v>566</v>
       </c>
@@ -8153,7 +8143,7 @@
       </c>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="4" t="s">
         <v>567</v>
       </c>
@@ -8174,7 +8164,7 @@
       </c>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="4" t="s">
         <v>568</v>
       </c>
@@ -8195,7 +8185,7 @@
       </c>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="4" t="s">
         <v>569</v>
       </c>
@@ -8216,7 +8206,7 @@
       </c>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="4" t="s">
         <v>571</v>
       </c>
@@ -8239,7 +8229,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="243" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="4" t="s">
         <v>572</v>
       </c>
@@ -8262,7 +8252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="4" t="s">
         <v>573</v>
       </c>
@@ -8283,7 +8273,7 @@
       </c>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="4" t="s">
         <v>575</v>
       </c>
@@ -8304,7 +8294,7 @@
       </c>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="4" t="s">
         <v>577</v>
       </c>
@@ -8325,7 +8315,7 @@
       </c>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="4" t="s">
         <v>579</v>
       </c>
@@ -8346,7 +8336,7 @@
       </c>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="4" t="s">
         <v>581</v>
       </c>
@@ -8367,7 +8357,7 @@
       </c>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="4" t="s">
         <v>583</v>
       </c>
@@ -8388,7 +8378,7 @@
       </c>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="4" t="s">
         <v>585</v>
       </c>
@@ -8409,7 +8399,7 @@
       </c>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="4" t="s">
         <v>587</v>
       </c>
@@ -8432,7 +8422,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="252" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="4" t="s">
         <v>590</v>
       </c>
@@ -8453,7 +8443,7 @@
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="4" t="s">
         <v>592</v>
       </c>
@@ -8476,7 +8466,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="254" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="4" t="s">
         <v>594</v>
       </c>
@@ -8497,7 +8487,7 @@
       </c>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="4" t="s">
         <v>9</v>
       </c>
@@ -8518,7 +8508,7 @@
       </c>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="4" t="s">
         <v>13</v>
       </c>
@@ -8539,7 +8529,7 @@
       </c>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="4" t="s">
         <v>15</v>
       </c>
@@ -8562,7 +8552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="4" t="s">
         <v>18</v>
       </c>
@@ -8585,7 +8575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="4" t="s">
         <v>21</v>
       </c>
@@ -8608,7 +8598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="4" t="s">
         <v>26</v>
       </c>
@@ -8631,7 +8621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="4" t="s">
         <v>29</v>
       </c>
@@ -8652,7 +8642,7 @@
       </c>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="4" t="s">
         <v>31</v>
       </c>
@@ -8673,7 +8663,7 @@
       </c>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4" t="s">
         <v>33</v>
       </c>
@@ -8694,7 +8684,7 @@
       </c>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="4" t="s">
         <v>36</v>
       </c>
@@ -8715,7 +8705,7 @@
       </c>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="4" t="s">
         <v>38</v>
       </c>
@@ -8738,7 +8728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="4" t="s">
         <v>41</v>
       </c>
@@ -8761,7 +8751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="4" t="s">
         <v>44</v>
       </c>
@@ -8782,7 +8772,7 @@
       </c>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="4" t="s">
         <v>46</v>
       </c>
@@ -8803,7 +8793,7 @@
       </c>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="4" t="s">
         <v>48</v>
       </c>
@@ -8824,7 +8814,7 @@
       </c>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="4" t="s">
         <v>50</v>
       </c>
@@ -8845,7 +8835,7 @@
       </c>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="4" t="s">
         <v>52</v>
       </c>
@@ -8866,7 +8856,7 @@
       </c>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="4" t="s">
         <v>54</v>
       </c>
@@ -8887,7 +8877,7 @@
       </c>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="4" t="s">
         <v>57</v>
       </c>
@@ -8908,7 +8898,7 @@
       </c>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="4" t="s">
         <v>59</v>
       </c>
@@ -8929,7 +8919,7 @@
       </c>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="4" t="s">
         <v>61</v>
       </c>
@@ -8952,7 +8942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="4" t="s">
         <v>64</v>
       </c>
@@ -8973,7 +8963,7 @@
       </c>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="4" t="s">
         <v>66</v>
       </c>
@@ -8994,7 +8984,7 @@
       </c>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="4" t="s">
         <v>68</v>
       </c>
@@ -9017,7 +9007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="4" t="s">
         <v>70</v>
       </c>
@@ -9040,7 +9030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="4" t="s">
         <v>71</v>
       </c>
@@ -9063,7 +9053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="4" t="s">
         <v>72</v>
       </c>
@@ -9086,7 +9076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="4" t="s">
         <v>74</v>
       </c>
@@ -9107,7 +9097,7 @@
       </c>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="4" t="s">
         <v>76</v>
       </c>
@@ -9128,7 +9118,7 @@
       </c>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="4" t="s">
         <v>616</v>
       </c>
@@ -9151,7 +9141,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4" t="s">
         <v>619</v>
       </c>
@@ -9172,7 +9162,7 @@
       </c>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="4" t="s">
         <v>621</v>
       </c>
@@ -9195,7 +9185,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="4" t="s">
         <v>623</v>
       </c>
@@ -9218,7 +9208,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="4" t="s">
         <v>625</v>
       </c>
@@ -9241,7 +9231,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="4" t="s">
         <v>626</v>
       </c>
@@ -9264,7 +9254,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="290" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="4" t="s">
         <v>628</v>
       </c>
@@ -9285,7 +9275,7 @@
       </c>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="4" t="s">
         <v>629</v>
       </c>
@@ -9306,7 +9296,7 @@
       </c>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="4" t="s">
         <v>78</v>
       </c>
@@ -9327,7 +9317,7 @@
       </c>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="4" t="s">
         <v>80</v>
       </c>
@@ -9348,7 +9338,7 @@
       </c>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="4" t="s">
         <v>82</v>
       </c>
@@ -9371,7 +9361,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="4" t="s">
         <v>84</v>
       </c>
@@ -9394,7 +9384,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="4" t="s">
         <v>86</v>
       </c>
@@ -9417,7 +9407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="4" t="s">
         <v>88</v>
       </c>
@@ -9440,7 +9430,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="298" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="4" t="s">
         <v>90</v>
       </c>
@@ -9461,7 +9451,7 @@
       </c>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="4" t="s">
         <v>91</v>
       </c>
@@ -9482,7 +9472,7 @@
       </c>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="4" t="s">
         <v>630</v>
       </c>
@@ -9505,7 +9495,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="4" t="s">
         <v>633</v>
       </c>
@@ -9526,7 +9516,7 @@
       </c>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="4" t="s">
         <v>635</v>
       </c>
@@ -9549,7 +9539,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="4" t="s">
         <v>637</v>
       </c>
@@ -9572,7 +9562,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="304" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="4" t="s">
         <v>638</v>
       </c>
@@ -9595,7 +9585,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="4" t="s">
         <v>639</v>
       </c>
@@ -9618,7 +9608,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="4" t="s">
         <v>642</v>
       </c>
@@ -9639,7 +9629,7 @@
       </c>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4" t="s">
         <v>643</v>
       </c>
@@ -9660,7 +9650,7 @@
       </c>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="4" t="s">
         <v>645</v>
       </c>
@@ -9681,7 +9671,7 @@
       </c>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="4" t="s">
         <v>646</v>
       </c>
@@ -9702,7 +9692,7 @@
       </c>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="4" t="s">
         <v>648</v>
       </c>
@@ -9725,7 +9715,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="4" t="s">
         <v>651</v>
       </c>
@@ -9748,7 +9738,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="4" t="s">
         <v>653</v>
       </c>
@@ -9768,8 +9758,9 @@
         <v>257</v>
       </c>
       <c r="H312" s="7"/>
-    </row>
-    <row r="313" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J312" s="26"/>
+    </row>
+    <row r="313" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="4" t="s">
         <v>654</v>
       </c>
@@ -9791,8 +9782,9 @@
       <c r="H313" s="7" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="314" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J313" s="26"/>
+    </row>
+    <row r="314" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="4" t="s">
         <v>657</v>
       </c>
@@ -9812,10 +9804,11 @@
         <v>298</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="315" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="J314" s="26"/>
+    </row>
+    <row r="315" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="4" t="s">
         <v>658</v>
       </c>
@@ -9835,8 +9828,9 @@
         <v>301</v>
       </c>
       <c r="H315" s="7"/>
-    </row>
-    <row r="316" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J315" s="26"/>
+    </row>
+    <row r="316" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="4" t="s">
         <v>659</v>
       </c>
@@ -9859,7 +9853,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="317" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="4" t="s">
         <v>661</v>
       </c>
@@ -9882,7 +9876,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="4" t="s">
         <v>664</v>
       </c>
@@ -9905,7 +9899,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="319" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="4" t="s">
         <v>666</v>
       </c>
@@ -9928,7 +9922,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:10" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="4" t="s">
         <v>669</v>
       </c>
@@ -9951,7 +9945,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="4" t="s">
         <v>671</v>
       </c>
@@ -9974,7 +9968,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="4" t="s">
         <v>673</v>
       </c>
@@ -9997,7 +9991,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="4" t="s">
         <v>675</v>
       </c>
@@ -10020,7 +10014,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="4" t="s">
         <v>678</v>
       </c>
@@ -10039,7 +10033,7 @@
       <c r="G324" s="5"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="4" t="s">
         <v>680</v>
       </c>
@@ -10060,7 +10054,7 @@
       </c>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="4" t="s">
         <v>596</v>
       </c>
@@ -10083,7 +10077,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="4" t="s">
         <v>599</v>
       </c>
@@ -10104,7 +10098,7 @@
       </c>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="4" t="s">
         <v>601</v>
       </c>
@@ -10127,7 +10121,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="4" t="s">
         <v>604</v>
       </c>
@@ -10150,7 +10144,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="4" t="s">
         <v>607</v>
       </c>
@@ -10173,7 +10167,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="4" t="s">
         <v>610</v>
       </c>
@@ -10196,7 +10190,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="4" t="s">
         <v>612</v>
       </c>
@@ -10219,7 +10213,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="16" t="s">
         <v>615</v>
       </c>
@@ -10248,27 +10242,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ADC2AB-B76D-47F9-AD54-9FD404885EBF}">
-  <dimension ref="B1:I333"/>
+  <dimension ref="B1:K333"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="98.77734375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.81640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
-    <col min="8" max="8" width="44.21875" customWidth="1"/>
+    <col min="8" max="8" width="44.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10291,7 +10281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>93</v>
       </c>
@@ -10312,7 +10302,7 @@
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="2:8" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="93.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>95</v>
       </c>
@@ -10333,7 +10323,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="130" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>97</v>
       </c>
@@ -10354,7 +10344,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>99</v>
       </c>
@@ -10377,7 +10367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -10400,7 +10390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>104</v>
       </c>
@@ -10423,7 +10413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>107</v>
       </c>
@@ -10446,7 +10436,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
@@ -10467,7 +10457,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
@@ -10488,7 +10478,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>112</v>
       </c>
@@ -10509,7 +10499,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>114</v>
       </c>
@@ -10530,7 +10520,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>116</v>
       </c>
@@ -10551,7 +10541,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>118</v>
       </c>
@@ -10572,7 +10562,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>120</v>
       </c>
@@ -10593,7 +10583,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>121</v>
       </c>
@@ -10614,7 +10604,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>123</v>
       </c>
@@ -10635,7 +10625,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
         <v>125</v>
       </c>
@@ -10656,7 +10646,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>127</v>
       </c>
@@ -10677,7 +10667,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>129</v>
       </c>
@@ -10698,7 +10688,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>130</v>
       </c>
@@ -10719,7 +10709,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>132</v>
       </c>
@@ -10740,7 +10730,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
@@ -10761,7 +10751,7 @@
       </c>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
@@ -10782,7 +10772,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
@@ -10803,7 +10793,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>139</v>
       </c>
@@ -10824,7 +10814,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>141</v>
       </c>
@@ -10845,7 +10835,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>144</v>
       </c>
@@ -10866,7 +10856,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>146</v>
       </c>
@@ -10887,7 +10877,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>148</v>
       </c>
@@ -10908,7 +10898,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>150</v>
       </c>
@@ -10929,7 +10919,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>152</v>
       </c>
@@ -10950,7 +10940,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>154</v>
       </c>
@@ -10971,7 +10961,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>156</v>
       </c>
@@ -10992,7 +10982,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>159</v>
       </c>
@@ -11013,7 +11003,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>161</v>
       </c>
@@ -11034,7 +11024,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>163</v>
       </c>
@@ -11055,7 +11045,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>165</v>
       </c>
@@ -11076,7 +11066,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>167</v>
       </c>
@@ -11097,7 +11087,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>169</v>
       </c>
@@ -11118,7 +11108,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>171</v>
       </c>
@@ -11139,7 +11129,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>173</v>
       </c>
@@ -11160,7 +11150,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>175</v>
       </c>
@@ -11181,7 +11171,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>177</v>
       </c>
@@ -11202,7 +11192,7 @@
       </c>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>179</v>
       </c>
@@ -11223,7 +11213,7 @@
       </c>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>180</v>
       </c>
@@ -11246,7 +11236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
@@ -11269,7 +11259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>184</v>
       </c>
@@ -11292,7 +11282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>186</v>
       </c>
@@ -11315,7 +11305,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>188</v>
       </c>
@@ -11336,7 +11326,7 @@
       </c>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>189</v>
       </c>
@@ -11357,7 +11347,7 @@
       </c>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>190</v>
       </c>
@@ -11378,7 +11368,7 @@
       </c>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>191</v>
       </c>
@@ -11399,7 +11389,7 @@
       </c>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>193</v>
       </c>
@@ -11422,7 +11412,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>196</v>
       </c>
@@ -11445,7 +11435,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>199</v>
       </c>
@@ -11466,7 +11456,7 @@
       </c>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>201</v>
       </c>
@@ -11489,7 +11479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>204</v>
       </c>
@@ -11512,7 +11502,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>206</v>
       </c>
@@ -11535,7 +11525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>208</v>
       </c>
@@ -11558,7 +11548,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>211</v>
       </c>
@@ -11579,7 +11569,7 @@
       </c>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>213</v>
       </c>
@@ -11602,7 +11592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>216</v>
       </c>
@@ -11625,7 +11615,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>219</v>
       </c>
@@ -11648,7 +11638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
         <v>222</v>
       </c>
@@ -11671,7 +11661,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>225</v>
       </c>
@@ -11694,7 +11684,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>228</v>
       </c>
@@ -11713,7 +11703,7 @@
       <c r="G67" s="12"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>229</v>
       </c>
@@ -11732,7 +11722,7 @@
       <c r="G68" s="12"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>230</v>
       </c>
@@ -11751,7 +11741,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>231</v>
       </c>
@@ -11770,7 +11760,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="2:8" ht="142.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="142" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="4" t="s">
         <v>232</v>
       </c>
@@ -11791,7 +11781,7 @@
       </c>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="4" t="s">
         <v>234</v>
       </c>
@@ -11812,7 +11802,7 @@
       </c>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>235</v>
       </c>
@@ -11835,7 +11825,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
         <v>237</v>
       </c>
@@ -11858,7 +11848,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>238</v>
       </c>
@@ -11881,7 +11871,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>240</v>
       </c>
@@ -11904,7 +11894,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>242</v>
       </c>
@@ -11925,7 +11915,7 @@
       </c>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>243</v>
       </c>
@@ -11946,7 +11936,7 @@
       </c>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
         <v>245</v>
       </c>
@@ -11969,7 +11959,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>248</v>
       </c>
@@ -11992,7 +11982,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
         <v>251</v>
       </c>
@@ -12015,7 +12005,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>253</v>
       </c>
@@ -12038,7 +12028,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>256</v>
       </c>
@@ -12059,7 +12049,7 @@
       </c>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>258</v>
       </c>
@@ -12082,7 +12072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>261</v>
       </c>
@@ -12103,7 +12093,7 @@
       </c>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>263</v>
       </c>
@@ -12124,7 +12114,7 @@
       </c>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>265</v>
       </c>
@@ -12147,7 +12137,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>267</v>
       </c>
@@ -12168,7 +12158,7 @@
       </c>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>268</v>
       </c>
@@ -12189,7 +12179,7 @@
       </c>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>270</v>
       </c>
@@ -12212,7 +12202,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>273</v>
       </c>
@@ -12235,7 +12225,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>276</v>
       </c>
@@ -12258,7 +12248,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>279</v>
       </c>
@@ -12281,7 +12271,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="4" t="s">
         <v>282</v>
       </c>
@@ -12302,7 +12292,7 @@
       </c>
       <c r="H94" s="13"/>
     </row>
-    <row r="95" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>283</v>
       </c>
@@ -12323,7 +12313,7 @@
       </c>
       <c r="H95" s="13"/>
     </row>
-    <row r="96" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>285</v>
       </c>
@@ -12344,7 +12334,7 @@
       </c>
       <c r="H96" s="13"/>
     </row>
-    <row r="97" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>287</v>
       </c>
@@ -12365,7 +12355,7 @@
       </c>
       <c r="H97" s="13"/>
     </row>
-    <row r="98" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>289</v>
       </c>
@@ -12386,7 +12376,7 @@
       </c>
       <c r="H98" s="13"/>
     </row>
-    <row r="99" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>291</v>
       </c>
@@ -12407,7 +12397,7 @@
       </c>
       <c r="H99" s="13"/>
     </row>
-    <row r="100" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>292</v>
       </c>
@@ -12428,7 +12418,7 @@
       </c>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>294</v>
       </c>
@@ -12451,7 +12441,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>297</v>
       </c>
@@ -12474,7 +12464,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>300</v>
       </c>
@@ -12497,7 +12487,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>303</v>
       </c>
@@ -12520,7 +12510,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>306</v>
       </c>
@@ -12541,7 +12531,7 @@
       </c>
       <c r="H105" s="13"/>
     </row>
-    <row r="106" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="4" t="s">
         <v>307</v>
       </c>
@@ -12562,7 +12552,7 @@
       </c>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="4" t="s">
         <v>308</v>
       </c>
@@ -12583,7 +12573,7 @@
       </c>
       <c r="H107" s="13"/>
     </row>
-    <row r="108" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="4" t="s">
         <v>310</v>
       </c>
@@ -12604,7 +12594,7 @@
       </c>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="4" t="s">
         <v>311</v>
       </c>
@@ -12625,7 +12615,7 @@
       </c>
       <c r="H109" s="13"/>
     </row>
-    <row r="110" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="4" t="s">
         <v>313</v>
       </c>
@@ -12646,7 +12636,7 @@
       </c>
       <c r="H110" s="13"/>
     </row>
-    <row r="111" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="4" t="s">
         <v>315</v>
       </c>
@@ -12667,7 +12657,7 @@
       </c>
       <c r="H111" s="13"/>
     </row>
-    <row r="112" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="4" t="s">
         <v>317</v>
       </c>
@@ -12690,7 +12680,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="4" t="s">
         <v>320</v>
       </c>
@@ -12713,7 +12703,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="4" t="s">
         <v>322</v>
       </c>
@@ -12736,7 +12726,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
         <v>325</v>
       </c>
@@ -12757,7 +12747,7 @@
       </c>
       <c r="H115" s="13"/>
     </row>
-    <row r="116" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="4" t="s">
         <v>326</v>
       </c>
@@ -12780,7 +12770,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="4" t="s">
         <v>328</v>
       </c>
@@ -12803,7 +12793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="4" t="s">
         <v>329</v>
       </c>
@@ -12824,7 +12814,7 @@
       </c>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="4" t="s">
         <v>330</v>
       </c>
@@ -12845,7 +12835,7 @@
       </c>
       <c r="H119" s="13"/>
     </row>
-    <row r="120" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="4" t="s">
         <v>331</v>
       </c>
@@ -12866,7 +12856,7 @@
       </c>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="4" t="s">
         <v>332</v>
       </c>
@@ -12889,7 +12879,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="4" t="s">
         <v>335</v>
       </c>
@@ -12910,7 +12900,7 @@
       </c>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="4" t="s">
         <v>337</v>
       </c>
@@ -12931,7 +12921,7 @@
       </c>
       <c r="H123" s="13"/>
     </row>
-    <row r="124" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="4" t="s">
         <v>338</v>
       </c>
@@ -12952,7 +12942,7 @@
       </c>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="4" t="s">
         <v>340</v>
       </c>
@@ -12973,7 +12963,7 @@
       </c>
       <c r="H125" s="13"/>
     </row>
-    <row r="126" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="4" t="s">
         <v>342</v>
       </c>
@@ -12996,7 +12986,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="4" t="s">
         <v>345</v>
       </c>
@@ -13019,7 +13009,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="4" t="s">
         <v>348</v>
       </c>
@@ -13040,7 +13030,7 @@
       </c>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="4" t="s">
         <v>350</v>
       </c>
@@ -13063,7 +13053,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="4" t="s">
         <v>353</v>
       </c>
@@ -13082,7 +13072,7 @@
       <c r="G130" s="5"/>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>354</v>
       </c>
@@ -13103,7 +13093,7 @@
       </c>
       <c r="H131" s="13"/>
     </row>
-    <row r="132" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="4" t="s">
         <v>356</v>
       </c>
@@ -13126,7 +13116,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="4" t="s">
         <v>359</v>
       </c>
@@ -13147,7 +13137,7 @@
       </c>
       <c r="H133" s="13"/>
     </row>
-    <row r="134" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="4" t="s">
         <v>360</v>
       </c>
@@ -13168,7 +13158,7 @@
       </c>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="4" t="s">
         <v>362</v>
       </c>
@@ -13189,7 +13179,7 @@
       </c>
       <c r="H135" s="13"/>
     </row>
-    <row r="136" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="4" t="s">
         <v>364</v>
       </c>
@@ -13210,7 +13200,7 @@
       </c>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="4" t="s">
         <v>366</v>
       </c>
@@ -13229,7 +13219,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="13"/>
     </row>
-    <row r="138" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="4" t="s">
         <v>367</v>
       </c>
@@ -13252,7 +13242,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="4" t="s">
         <v>370</v>
       </c>
@@ -13273,7 +13263,7 @@
       </c>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="4" t="s">
         <v>372</v>
       </c>
@@ -13294,7 +13284,7 @@
       </c>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="4" t="s">
         <v>373</v>
       </c>
@@ -13315,7 +13305,7 @@
       </c>
       <c r="H141" s="13"/>
     </row>
-    <row r="142" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="4" t="s">
         <v>374</v>
       </c>
@@ -13338,7 +13328,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="4" t="s">
         <v>376</v>
       </c>
@@ -13359,7 +13349,7 @@
       </c>
       <c r="H143" s="13"/>
     </row>
-    <row r="144" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="4" t="s">
         <v>377</v>
       </c>
@@ -13382,7 +13372,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="145" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="4" t="s">
         <v>380</v>
       </c>
@@ -13403,7 +13393,7 @@
       </c>
       <c r="H145" s="13"/>
     </row>
-    <row r="146" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="4" t="s">
         <v>382</v>
       </c>
@@ -13424,7 +13414,7 @@
       </c>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="4" t="s">
         <v>384</v>
       </c>
@@ -13445,7 +13435,7 @@
       </c>
       <c r="H147" s="13"/>
     </row>
-    <row r="148" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="4" t="s">
         <v>386</v>
       </c>
@@ -13466,7 +13456,7 @@
       </c>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="4" t="s">
         <v>388</v>
       </c>
@@ -13486,9 +13476,8 @@
         <v>389</v>
       </c>
       <c r="H149" s="13"/>
-      <c r="I149" s="26"/>
-    </row>
-    <row r="150" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="4" t="s">
         <v>390</v>
       </c>
@@ -13511,7 +13500,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="151" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="4" t="s">
         <v>393</v>
       </c>
@@ -13532,7 +13521,7 @@
       </c>
       <c r="H151" s="13"/>
     </row>
-    <row r="152" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="4" t="s">
         <v>395</v>
       </c>
@@ -13555,7 +13544,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>397</v>
       </c>
@@ -13578,7 +13567,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="4" t="s">
         <v>399</v>
       </c>
@@ -13599,7 +13588,7 @@
       </c>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="4" t="s">
         <v>401</v>
       </c>
@@ -13620,7 +13609,7 @@
       </c>
       <c r="H155" s="13"/>
     </row>
-    <row r="156" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="4" t="s">
         <v>402</v>
       </c>
@@ -13641,7 +13630,7 @@
       </c>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="4" t="s">
         <v>404</v>
       </c>
@@ -13662,7 +13651,7 @@
       </c>
       <c r="H157" s="13"/>
     </row>
-    <row r="158" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="4" t="s">
         <v>406</v>
       </c>
@@ -13683,7 +13672,7 @@
       </c>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="4" t="s">
         <v>408</v>
       </c>
@@ -13704,7 +13693,7 @@
       </c>
       <c r="H159" s="13"/>
     </row>
-    <row r="160" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="4" t="s">
         <v>410</v>
       </c>
@@ -13725,7 +13714,7 @@
       </c>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="4" t="s">
         <v>412</v>
       </c>
@@ -13746,7 +13735,7 @@
       </c>
       <c r="H161" s="13"/>
     </row>
-    <row r="162" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="14" t="s">
         <v>414</v>
       </c>
@@ -13769,7 +13758,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="14" t="s">
         <v>417</v>
       </c>
@@ -13790,7 +13779,7 @@
       </c>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="4" t="s">
         <v>418</v>
       </c>
@@ -13813,7 +13802,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="4" t="s">
         <v>420</v>
       </c>
@@ -13836,7 +13825,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="4" t="s">
         <v>422</v>
       </c>
@@ -13859,7 +13848,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="4" t="s">
         <v>424</v>
       </c>
@@ -13882,7 +13871,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="4" t="s">
         <v>426</v>
       </c>
@@ -13903,7 +13892,7 @@
       </c>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="4" t="s">
         <v>427</v>
       </c>
@@ -13924,7 +13913,7 @@
       </c>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="4" t="s">
         <v>429</v>
       </c>
@@ -13947,7 +13936,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="4" t="s">
         <v>431</v>
       </c>
@@ -13968,7 +13957,7 @@
       </c>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="4" t="s">
         <v>433</v>
       </c>
@@ -13989,7 +13978,7 @@
       </c>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="4" t="s">
         <v>435</v>
       </c>
@@ -14010,7 +13999,7 @@
       </c>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="4" t="s">
         <v>436</v>
       </c>
@@ -14031,7 +14020,7 @@
       </c>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>438</v>
       </c>
@@ -14052,7 +14041,7 @@
       </c>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="4" t="s">
         <v>440</v>
       </c>
@@ -14073,7 +14062,7 @@
       </c>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="4" t="s">
         <v>442</v>
       </c>
@@ -14096,7 +14085,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="4" t="s">
         <v>444</v>
       </c>
@@ -14117,7 +14106,7 @@
       </c>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="4" t="s">
         <v>446</v>
       </c>
@@ -14140,7 +14129,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="4" t="s">
         <v>449</v>
       </c>
@@ -14161,7 +14150,7 @@
       </c>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="4" t="s">
         <v>451</v>
       </c>
@@ -14182,7 +14171,7 @@
       </c>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="4" t="s">
         <v>452</v>
       </c>
@@ -14205,7 +14194,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="4" t="s">
         <v>454</v>
       </c>
@@ -14228,7 +14217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="4" t="s">
         <v>455</v>
       </c>
@@ -14251,7 +14240,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="4" t="s">
         <v>457</v>
       </c>
@@ -14274,7 +14263,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="4" t="s">
         <v>459</v>
       </c>
@@ -14295,7 +14284,7 @@
       </c>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="4" t="s">
         <v>461</v>
       </c>
@@ -14318,7 +14307,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="4" t="s">
         <v>463</v>
       </c>
@@ -14339,7 +14328,7 @@
       </c>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="4" t="s">
         <v>465</v>
       </c>
@@ -14360,7 +14349,7 @@
       </c>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="4" t="s">
         <v>466</v>
       </c>
@@ -14383,7 +14372,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="4" t="s">
         <v>469</v>
       </c>
@@ -14404,7 +14393,7 @@
       </c>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="4" t="s">
         <v>471</v>
       </c>
@@ -14427,7 +14416,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="193" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="4" t="s">
         <v>474</v>
       </c>
@@ -14448,7 +14437,7 @@
       </c>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="4" t="s">
         <v>476</v>
       </c>
@@ -14471,7 +14460,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="195" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="4" t="s">
         <v>683</v>
       </c>
@@ -14492,7 +14481,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="196" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="4" t="s">
         <v>479</v>
       </c>
@@ -14515,7 +14504,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="197" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>482</v>
       </c>
@@ -14538,7 +14527,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="198" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="4" t="s">
         <v>485</v>
       </c>
@@ -14561,7 +14550,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="199" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="4" t="s">
         <v>488</v>
       </c>
@@ -14584,7 +14573,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="4" t="s">
         <v>491</v>
       </c>
@@ -14605,7 +14594,7 @@
       </c>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="4" t="s">
         <v>492</v>
       </c>
@@ -14626,7 +14615,7 @@
       </c>
       <c r="H201" s="7"/>
     </row>
-    <row r="202" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="4" t="s">
         <v>494</v>
       </c>
@@ -14647,7 +14636,7 @@
       </c>
       <c r="H202" s="7"/>
     </row>
-    <row r="203" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="4" t="s">
         <v>496</v>
       </c>
@@ -14668,7 +14657,7 @@
       </c>
       <c r="H203" s="7"/>
     </row>
-    <row r="204" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="4" t="s">
         <v>497</v>
       </c>
@@ -14689,7 +14678,7 @@
       </c>
       <c r="H204" s="7"/>
     </row>
-    <row r="205" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="4" t="s">
         <v>498</v>
       </c>
@@ -14712,7 +14701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="206" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="4" t="s">
         <v>501</v>
       </c>
@@ -14733,7 +14722,7 @@
       </c>
       <c r="H206" s="7"/>
     </row>
-    <row r="207" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="4" t="s">
         <v>503</v>
       </c>
@@ -14751,9 +14740,8 @@
       </c>
       <c r="G207" s="5"/>
       <c r="H207" s="7"/>
-      <c r="I207" s="27"/>
-    </row>
-    <row r="208" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="4" t="s">
         <v>504</v>
       </c>
@@ -14776,7 +14764,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="209" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="4" t="s">
         <v>506</v>
       </c>
@@ -14797,7 +14785,7 @@
       </c>
       <c r="H209" s="7"/>
     </row>
-    <row r="210" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="4" t="s">
         <v>508</v>
       </c>
@@ -14818,7 +14806,7 @@
       </c>
       <c r="H210" s="7"/>
     </row>
-    <row r="211" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="4" t="s">
         <v>510</v>
       </c>
@@ -14841,7 +14829,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="4" t="s">
         <v>512</v>
       </c>
@@ -14864,7 +14852,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="213" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="4" t="s">
         <v>515</v>
       </c>
@@ -14887,7 +14875,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="214" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="4" t="s">
         <v>518</v>
       </c>
@@ -14910,7 +14898,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="215" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="4" t="s">
         <v>521</v>
       </c>
@@ -14931,7 +14919,7 @@
       </c>
       <c r="H215" s="7"/>
     </row>
-    <row r="216" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="4" t="s">
         <v>523</v>
       </c>
@@ -14952,7 +14940,7 @@
       </c>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="4" t="s">
         <v>525</v>
       </c>
@@ -14975,7 +14963,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="218" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="4" t="s">
         <v>527</v>
       </c>
@@ -14998,7 +14986,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="219" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="23" t="s">
         <v>530</v>
       </c>
@@ -15019,7 +15007,7 @@
       </c>
       <c r="H219" s="7"/>
     </row>
-    <row r="220" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="4" t="s">
         <v>532</v>
       </c>
@@ -15042,7 +15030,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="221" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="4" t="s">
         <v>535</v>
       </c>
@@ -15065,7 +15053,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="4" t="s">
         <v>536</v>
       </c>
@@ -15085,9 +15073,8 @@
         <v>502</v>
       </c>
       <c r="H222" s="7"/>
-      <c r="I222" s="27"/>
-    </row>
-    <row r="223" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="4" t="s">
         <v>537</v>
       </c>
@@ -15108,7 +15095,7 @@
       </c>
       <c r="H223" s="7"/>
     </row>
-    <row r="224" spans="2:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="4" t="s">
         <v>539</v>
       </c>
@@ -15129,7 +15116,7 @@
       </c>
       <c r="H224" s="7"/>
     </row>
-    <row r="225" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="4" t="s">
         <v>540</v>
       </c>
@@ -15150,7 +15137,7 @@
       </c>
       <c r="H225" s="7"/>
     </row>
-    <row r="226" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="4" t="s">
         <v>542</v>
       </c>
@@ -15171,7 +15158,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="227" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="4" t="s">
         <v>544</v>
       </c>
@@ -15192,7 +15179,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="228" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="4" t="s">
         <v>546</v>
       </c>
@@ -15213,7 +15200,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="229" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="4" t="s">
         <v>548</v>
       </c>
@@ -15234,7 +15221,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="230" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="4" t="s">
         <v>550</v>
       </c>
@@ -15255,7 +15242,7 @@
       </c>
       <c r="H230" s="7"/>
     </row>
-    <row r="231" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="4" t="s">
         <v>552</v>
       </c>
@@ -15278,7 +15265,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="232" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="4" t="s">
         <v>555</v>
       </c>
@@ -15299,7 +15286,7 @@
       </c>
       <c r="H232" s="7"/>
     </row>
-    <row r="233" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="4" t="s">
         <v>557</v>
       </c>
@@ -15320,7 +15307,7 @@
       </c>
       <c r="H233" s="7"/>
     </row>
-    <row r="234" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="4" t="s">
         <v>558</v>
       </c>
@@ -15343,7 +15330,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="235" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="4" t="s">
         <v>560</v>
       </c>
@@ -15366,7 +15353,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="236" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="4" t="s">
         <v>562</v>
       </c>
@@ -15389,7 +15376,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="237" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="4" t="s">
         <v>564</v>
       </c>
@@ -15412,7 +15399,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="4" t="s">
         <v>566</v>
       </c>
@@ -15433,7 +15420,7 @@
       </c>
       <c r="H238" s="7"/>
     </row>
-    <row r="239" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="4" t="s">
         <v>567</v>
       </c>
@@ -15454,7 +15441,7 @@
       </c>
       <c r="H239" s="7"/>
     </row>
-    <row r="240" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="4" t="s">
         <v>568</v>
       </c>
@@ -15475,7 +15462,7 @@
       </c>
       <c r="H240" s="7"/>
     </row>
-    <row r="241" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="4" t="s">
         <v>569</v>
       </c>
@@ -15496,7 +15483,7 @@
       </c>
       <c r="H241" s="7"/>
     </row>
-    <row r="242" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="4" t="s">
         <v>571</v>
       </c>
@@ -15519,7 +15506,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="243" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="4" t="s">
         <v>572</v>
       </c>
@@ -15542,7 +15529,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="4" t="s">
         <v>573</v>
       </c>
@@ -15563,7 +15550,7 @@
       </c>
       <c r="H244" s="7"/>
     </row>
-    <row r="245" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="4" t="s">
         <v>575</v>
       </c>
@@ -15584,7 +15571,7 @@
       </c>
       <c r="H245" s="7"/>
     </row>
-    <row r="246" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="4" t="s">
         <v>577</v>
       </c>
@@ -15605,7 +15592,7 @@
       </c>
       <c r="H246" s="7"/>
     </row>
-    <row r="247" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="4" t="s">
         <v>579</v>
       </c>
@@ -15626,7 +15613,7 @@
       </c>
       <c r="H247" s="7"/>
     </row>
-    <row r="248" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="4" t="s">
         <v>581</v>
       </c>
@@ -15647,7 +15634,7 @@
       </c>
       <c r="H248" s="7"/>
     </row>
-    <row r="249" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="4" t="s">
         <v>583</v>
       </c>
@@ -15668,7 +15655,7 @@
       </c>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="4" t="s">
         <v>585</v>
       </c>
@@ -15689,7 +15676,7 @@
       </c>
       <c r="H250" s="7"/>
     </row>
-    <row r="251" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="4" t="s">
         <v>587</v>
       </c>
@@ -15712,7 +15699,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="252" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="4" t="s">
         <v>590</v>
       </c>
@@ -15733,7 +15720,7 @@
       </c>
       <c r="H252" s="7"/>
     </row>
-    <row r="253" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="4" t="s">
         <v>592</v>
       </c>
@@ -15756,7 +15743,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="254" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="4" t="s">
         <v>594</v>
       </c>
@@ -15777,7 +15764,7 @@
       </c>
       <c r="H254" s="7"/>
     </row>
-    <row r="255" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="4" t="s">
         <v>9</v>
       </c>
@@ -15798,7 +15785,7 @@
       </c>
       <c r="H255" s="7"/>
     </row>
-    <row r="256" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="4" t="s">
         <v>13</v>
       </c>
@@ -15819,7 +15806,7 @@
       </c>
       <c r="H256" s="7"/>
     </row>
-    <row r="257" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="4" t="s">
         <v>15</v>
       </c>
@@ -15842,7 +15829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="4" t="s">
         <v>18</v>
       </c>
@@ -15865,7 +15852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="4" t="s">
         <v>21</v>
       </c>
@@ -15888,7 +15875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="4" t="s">
         <v>26</v>
       </c>
@@ -15911,7 +15898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="4" t="s">
         <v>29</v>
       </c>
@@ -15932,7 +15919,7 @@
       </c>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="4" t="s">
         <v>31</v>
       </c>
@@ -15953,7 +15940,7 @@
       </c>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4" t="s">
         <v>33</v>
       </c>
@@ -15974,7 +15961,7 @@
       </c>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="4" t="s">
         <v>36</v>
       </c>
@@ -15995,7 +15982,7 @@
       </c>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="4" t="s">
         <v>38</v>
       </c>
@@ -16018,7 +16005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="4" t="s">
         <v>41</v>
       </c>
@@ -16041,7 +16028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="267" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="4" t="s">
         <v>44</v>
       </c>
@@ -16062,7 +16049,7 @@
       </c>
       <c r="H267" s="7"/>
     </row>
-    <row r="268" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="4" t="s">
         <v>46</v>
       </c>
@@ -16083,7 +16070,7 @@
       </c>
       <c r="H268" s="7"/>
     </row>
-    <row r="269" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="4" t="s">
         <v>48</v>
       </c>
@@ -16104,7 +16091,7 @@
       </c>
       <c r="H269" s="7"/>
     </row>
-    <row r="270" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="4" t="s">
         <v>50</v>
       </c>
@@ -16125,7 +16112,7 @@
       </c>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="4" t="s">
         <v>52</v>
       </c>
@@ -16146,7 +16133,7 @@
       </c>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="4" t="s">
         <v>54</v>
       </c>
@@ -16167,7 +16154,7 @@
       </c>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="4" t="s">
         <v>57</v>
       </c>
@@ -16188,7 +16175,7 @@
       </c>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="4" t="s">
         <v>59</v>
       </c>
@@ -16209,7 +16196,7 @@
       </c>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="4" t="s">
         <v>61</v>
       </c>
@@ -16232,7 +16219,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="276" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="4" t="s">
         <v>64</v>
       </c>
@@ -16253,7 +16240,7 @@
       </c>
       <c r="H276" s="7"/>
     </row>
-    <row r="277" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="4" t="s">
         <v>66</v>
       </c>
@@ -16274,7 +16261,7 @@
       </c>
       <c r="H277" s="7"/>
     </row>
-    <row r="278" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="4" t="s">
         <v>68</v>
       </c>
@@ -16297,7 +16284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="279" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="4" t="s">
         <v>70</v>
       </c>
@@ -16320,7 +16307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="4" t="s">
         <v>71</v>
       </c>
@@ -16343,7 +16330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="4" t="s">
         <v>72</v>
       </c>
@@ -16366,7 +16353,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="4" t="s">
         <v>74</v>
       </c>
@@ -16387,7 +16374,7 @@
       </c>
       <c r="H282" s="7"/>
     </row>
-    <row r="283" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="4" t="s">
         <v>76</v>
       </c>
@@ -16408,7 +16395,7 @@
       </c>
       <c r="H283" s="7"/>
     </row>
-    <row r="284" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="4" t="s">
         <v>616</v>
       </c>
@@ -16431,7 +16418,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="285" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4" t="s">
         <v>619</v>
       </c>
@@ -16452,7 +16439,7 @@
       </c>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="4" t="s">
         <v>621</v>
       </c>
@@ -16475,7 +16462,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="287" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="4" t="s">
         <v>623</v>
       </c>
@@ -16498,7 +16485,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="288" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="4" t="s">
         <v>625</v>
       </c>
@@ -16521,7 +16508,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="4" t="s">
         <v>626</v>
       </c>
@@ -16544,7 +16531,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="290" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="4" t="s">
         <v>628</v>
       </c>
@@ -16565,7 +16552,7 @@
       </c>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="4" t="s">
         <v>629</v>
       </c>
@@ -16586,7 +16573,7 @@
       </c>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="4" t="s">
         <v>78</v>
       </c>
@@ -16607,7 +16594,7 @@
       </c>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="4" t="s">
         <v>80</v>
       </c>
@@ -16628,7 +16615,7 @@
       </c>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="4" t="s">
         <v>82</v>
       </c>
@@ -16651,7 +16638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="295" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="4" t="s">
         <v>84</v>
       </c>
@@ -16674,7 +16661,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="4" t="s">
         <v>86</v>
       </c>
@@ -16697,7 +16684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="4" t="s">
         <v>88</v>
       </c>
@@ -16720,7 +16707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="298" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="4" t="s">
         <v>90</v>
       </c>
@@ -16741,7 +16728,7 @@
       </c>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="4" t="s">
         <v>91</v>
       </c>
@@ -16762,7 +16749,7 @@
       </c>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="4" t="s">
         <v>630</v>
       </c>
@@ -16785,7 +16772,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="301" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="4" t="s">
         <v>633</v>
       </c>
@@ -16806,7 +16793,7 @@
       </c>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="4" t="s">
         <v>635</v>
       </c>
@@ -16829,7 +16816,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="303" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="4" t="s">
         <v>637</v>
       </c>
@@ -16852,7 +16839,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="304" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="4" t="s">
         <v>638</v>
       </c>
@@ -16875,7 +16862,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="305" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="4" t="s">
         <v>639</v>
       </c>
@@ -16898,7 +16885,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="306" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="4" t="s">
         <v>642</v>
       </c>
@@ -16919,7 +16906,7 @@
       </c>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4" t="s">
         <v>643</v>
       </c>
@@ -16940,7 +16927,7 @@
       </c>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="4" t="s">
         <v>645</v>
       </c>
@@ -16961,7 +16948,7 @@
       </c>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="4" t="s">
         <v>646</v>
       </c>
@@ -16982,7 +16969,7 @@
       </c>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="4" t="s">
         <v>648</v>
       </c>
@@ -17005,7 +16992,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="311" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="4" t="s">
         <v>651</v>
       </c>
@@ -17028,7 +17015,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="312" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="4" t="s">
         <v>653</v>
       </c>
@@ -17049,7 +17036,7 @@
       </c>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="4" t="s">
         <v>654</v>
       </c>
@@ -17071,8 +17058,10 @@
       <c r="H313" s="7" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="314" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J313" s="26"/>
+      <c r="K313" s="26"/>
+    </row>
+    <row r="314" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="4" t="s">
         <v>657</v>
       </c>
@@ -17092,10 +17081,12 @@
         <v>298</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="315" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="J314" s="26"/>
+      <c r="K314" s="26"/>
+    </row>
+    <row r="315" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="4" t="s">
         <v>658</v>
       </c>
@@ -17115,8 +17106,10 @@
         <v>301</v>
       </c>
       <c r="H315" s="7"/>
-    </row>
-    <row r="316" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J315" s="26"/>
+      <c r="K315" s="26"/>
+    </row>
+    <row r="316" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="4" t="s">
         <v>659</v>
       </c>
@@ -17138,8 +17131,10 @@
       <c r="H316" s="7" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="317" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J316" s="26"/>
+      <c r="K316" s="26"/>
+    </row>
+    <row r="317" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="4" t="s">
         <v>661</v>
       </c>
@@ -17162,7 +17157,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="318" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="4" t="s">
         <v>664</v>
       </c>
@@ -17185,7 +17180,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="319" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="4" t="s">
         <v>666</v>
       </c>
@@ -17208,7 +17203,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="320" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="2:11" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="4" t="s">
         <v>669</v>
       </c>
@@ -17231,7 +17226,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="321" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="4" t="s">
         <v>671</v>
       </c>
@@ -17254,7 +17249,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="322" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="4" t="s">
         <v>673</v>
       </c>
@@ -17277,7 +17272,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="323" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="4" t="s">
         <v>675</v>
       </c>
@@ -17300,7 +17295,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="324" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="4" t="s">
         <v>678</v>
       </c>
@@ -17319,7 +17314,7 @@
       <c r="G324" s="5"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="4" t="s">
         <v>680</v>
       </c>
@@ -17340,7 +17335,7 @@
       </c>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="4" t="s">
         <v>596</v>
       </c>
@@ -17363,7 +17358,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="327" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="4" t="s">
         <v>599</v>
       </c>
@@ -17384,7 +17379,7 @@
       </c>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="4" t="s">
         <v>601</v>
       </c>
@@ -17407,7 +17402,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="329" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="4" t="s">
         <v>604</v>
       </c>
@@ -17430,7 +17425,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="330" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="4" t="s">
         <v>607</v>
       </c>
@@ -17453,7 +17448,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="331" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="4" t="s">
         <v>610</v>
       </c>
@@ -17476,7 +17471,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="332" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="4" t="s">
         <v>612</v>
       </c>
@@ -17499,7 +17494,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="333" spans="2:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="16" t="s">
         <v>615</v>
       </c>
@@ -17527,16 +17522,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17545,7 +17530,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c85905c84e7b9db62133e476f18f597d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" xmlns:ns3="14722739-9480-433a-8c7c-4ec5d8a77ba5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f41c4fb8050516f2ffa6b06e98f6ad1" ns2:_="" ns3:_="">
     <xsd:import namespace="3d04b37e-0497-498c-96f6-8855740e5edb"/>
@@ -17762,24 +17747,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30190332-6041-407E-8836-A404E7A859A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF6244C-EF4D-4F54-A7D5-BDED889E9CC5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -17787,7 +17765,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C4C4E7-4165-4E6C-84E6-FB6820FB4342}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17804,4 +17782,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30190332-6041-407E-8836-A404E7A859A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>